--- a/project/ubuntu1804/Input_Data_and_Params.xlsx
+++ b/project/ubuntu1804/Input_Data_and_Params.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ExptlCVData" sheetId="1" state="visible" r:id="rId2"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t xml:space="preserve">Potential [mV]</t>
   </si>
@@ -191,18 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dimensionless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ytot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-1*s-1</t>
   </si>
   <si>
     <t xml:space="preserve">Ei</t>
@@ -529,16 +517,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -567,12 +555,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -638,7 +626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -648,11 +636,10 @@
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4683,17 +4670,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.27"/>
@@ -4704,7 +4691,6 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="34.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="11" style="4" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,223 +4765,185 @@
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13" t="n">
-        <v>0</v>
+      <c r="B7" s="16" t="n">
+        <v>1000</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11" t="n">
-        <v>1E-020</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="11" t="n">
-        <v>1E-020</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="16" t="n">
+        <v>1000</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16" t="n">
+        <v>560</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" s="17" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="17" t="n">
-        <v>1000</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>0.14</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="17" t="n">
-        <v>560</v>
+      <c r="A14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="20" t="n">
+        <v>0.035</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="18" t="n">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>25</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="13" t="n">
-        <v>0.14</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>1E-020</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="20" t="n">
-        <v>0.035</v>
+      <c r="A18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>1E-020</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="10"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="9" t="n">
-        <v>1E-020</v>
+        <v>36</v>
+      </c>
+      <c r="B21" s="22" t="n">
+        <f aca="false">-0.25*B20</f>
+        <v>-0.25</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="9" t="n">
-        <v>1E-020</v>
-      </c>
-      <c r="C22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="22" t="n">
-        <f aca="false">-0.25*B24</f>
-        <v>-0.25</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C24" type="none">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C20" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5011,41 +4959,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>50</v>
@@ -5053,13 +4999,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>5</v>
@@ -5067,13 +5013,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1E-006</v>
@@ -5081,13 +5027,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>1E-006</v>
@@ -5095,7 +5041,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0.01</v>
